--- a/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4599307469235948</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3859885021427851</v>
+        <v>0.385988502142785</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4314371963134234</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.408083507754758</v>
+        <v>0.4126284633336395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2013812957372589</v>
+        <v>0.2007632502671841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3152110083880708</v>
+        <v>0.3168119136770198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3517694115008813</v>
+        <v>0.3521258966086491</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3752929669457883</v>
+        <v>0.3789090426338803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.238765115061411</v>
+        <v>0.2391752799325334</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4213817392181555</v>
+        <v>0.4190784314993904</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3573007179745643</v>
+        <v>0.3551048232217831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.405209842810371</v>
+        <v>0.4078322696033838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2287764277670609</v>
+        <v>0.2264025814133288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3797775490654917</v>
+        <v>0.3801144648389968</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3640932225364679</v>
+        <v>0.3618337347065537</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.482973431807494</v>
+        <v>0.4898976914501392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2653278037346806</v>
+        <v>0.2649139181823896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3899847383067955</v>
+        <v>0.3884052577957345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4325138053615911</v>
+        <v>0.4341272624185749</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4524891334701463</v>
+        <v>0.4501932223000119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3085656765918866</v>
+        <v>0.3096224427875227</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4984904847507987</v>
+        <v>0.4988425975621177</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4175537868785441</v>
+        <v>0.4168326870030881</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4566328863589871</v>
+        <v>0.4591890547837473</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2751889462973023</v>
+        <v>0.2720217476911513</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4354184530902782</v>
+        <v>0.4320279490491659</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4132796012117059</v>
+        <v>0.4139684077477599</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3910011923686153</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3583402789432739</v>
+        <v>0.3583402789432738</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.385147712578829</v>
+        <v>0.3885783681990478</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2159793556250713</v>
+        <v>0.2144761146147112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3204795152248011</v>
+        <v>0.3211298023147229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3003519367528285</v>
+        <v>0.3030200373442235</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4390138222832271</v>
+        <v>0.4399089062270679</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3303251516952018</v>
+        <v>0.3319121122007032</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3980976875670661</v>
+        <v>0.3990168474524824</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3594406468381516</v>
+        <v>0.3581458260070779</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.42389056332125</v>
+        <v>0.4237313425034585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2805859775309768</v>
+        <v>0.2823793742249858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3698556711249405</v>
+        <v>0.3692757946051386</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3391053915508086</v>
+        <v>0.3377858127371012</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4523265959158147</v>
+        <v>0.4546526701546196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2706460396719133</v>
+        <v>0.2720874500260745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3810856568101474</v>
+        <v>0.3836131454716549</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3625046218763919</v>
+        <v>0.3628347047089215</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.505192563812535</v>
+        <v>0.5077757278081015</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3952585167266717</v>
+        <v>0.3926649295443291</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4622891337367188</v>
+        <v>0.4625799371504378</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.415728434217206</v>
+        <v>0.4102751471849176</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4706247416271519</v>
+        <v>0.4706435974819459</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3231990193810337</v>
+        <v>0.3234245057158579</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4143229093900114</v>
+        <v>0.4132317036197795</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3779269124701345</v>
+        <v>0.3789562730530907</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3319976824070902</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3506926084237139</v>
+        <v>0.3506926084237137</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3907000520942888</v>
@@ -957,7 +957,7 @@
         <v>0.3975319024976738</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4491731736439264</v>
+        <v>0.4491731736439265</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3588302839470561</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2897262724831538</v>
+        <v>0.2921112419652272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1756596736907015</v>
+        <v>0.176680496564451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2965213840197909</v>
+        <v>0.2986683013122051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3143472057468418</v>
+        <v>0.3147091084682991</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3526073651660933</v>
+        <v>0.3554672007639904</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2477210958274355</v>
+        <v>0.2466284793400219</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3594145550134755</v>
+        <v>0.3606129531080507</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4162588240795465</v>
+        <v>0.413449305748123</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3342434210045462</v>
+        <v>0.3291002843961108</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2216398709403915</v>
+        <v>0.2242568723393159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3367584737269759</v>
+        <v>0.3393175239996743</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3769561617599381</v>
+        <v>0.3773503221998984</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3670885022415377</v>
+        <v>0.3655917013367885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2388465317447079</v>
+        <v>0.239957391762652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3670190674846612</v>
+        <v>0.367780221013569</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3865488175622115</v>
+        <v>0.387966584910395</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4249930253281952</v>
+        <v>0.4284066608093602</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.314845640792138</v>
+        <v>0.3152002161188928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4342882456057839</v>
+        <v>0.4319973797157504</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4805017585426024</v>
+        <v>0.4797789193596968</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3842012885205676</v>
+        <v>0.3844522758900761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2671220656975889</v>
+        <v>0.2701921738233104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3917593324017949</v>
+        <v>0.3901404021481198</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.426107897253884</v>
+        <v>0.4260770724109272</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3184506944736923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2844965980252569</v>
+        <v>0.284496598025257</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5298991506822752</v>
@@ -1093,7 +1093,7 @@
         <v>0.4256628296077954</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4052072388817719</v>
+        <v>0.4052072388817718</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4832916874083888</v>
@@ -1105,7 +1105,7 @@
         <v>0.3749303683370063</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3485188138176805</v>
+        <v>0.3485188138176807</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4029668956702871</v>
+        <v>0.392993449357428</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1888780951127469</v>
+        <v>0.1883098503967902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.28957131000345</v>
+        <v>0.2914878913696132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2537913148348402</v>
+        <v>0.2561417230502625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4985815537694576</v>
+        <v>0.4987662523115327</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2723471889449604</v>
+        <v>0.2750009685494169</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3943462566905836</v>
+        <v>0.3956652186163494</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3795497853966552</v>
+        <v>0.37958074201701</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4610220096799007</v>
+        <v>0.4614547383427298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2412974006823806</v>
+        <v>0.2441692670246307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3542166814269492</v>
+        <v>0.352765029399802</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3286336366736936</v>
+        <v>0.3281195522893967</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4639498280139734</v>
+        <v>0.4597541645598676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2444200383724794</v>
+        <v>0.2447524921052378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3489450675830913</v>
+        <v>0.3497080090488748</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3151341659979214</v>
+        <v>0.3135573515080505</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5609288979482482</v>
+        <v>0.5617005033684477</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3333006356452344</v>
+        <v>0.3323244328609032</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4599633644409227</v>
+        <v>0.4594036015674102</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.430287616430761</v>
+        <v>0.4326340769312395</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5060681767000418</v>
+        <v>0.506290288622568</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2831743485420031</v>
+        <v>0.2840082975796224</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3953041719519755</v>
+        <v>0.3979147552947297</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3690399007451441</v>
+        <v>0.3671754782449033</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4272393023573018</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4363433802622917</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>280162</v>
+        <v>283282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>141492</v>
+        <v>141058</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>212704</v>
+        <v>213785</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>241888</v>
+        <v>242133</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>256790</v>
+        <v>259264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>166431</v>
+        <v>166717</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>283522</v>
+        <v>281972</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>261663</v>
+        <v>260055</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>555449</v>
+        <v>559043</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>320209</v>
+        <v>316886</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>511803</v>
+        <v>512257</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>517000</v>
+        <v>513792</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>331576</v>
+        <v>336329</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>186421</v>
+        <v>186131</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>263162</v>
+        <v>262096</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>297410</v>
+        <v>298520</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>309610</v>
+        <v>308039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>215086</v>
+        <v>215822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>335404</v>
+        <v>335641</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>305789</v>
+        <v>305261</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>625938</v>
+        <v>629442</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>385170</v>
+        <v>380737</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>586787</v>
+        <v>582218</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>586843</v>
+        <v>587821</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>363960</v>
+        <v>367202</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>219856</v>
+        <v>218325</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>327668</v>
+        <v>328333</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>314225</v>
+        <v>317016</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>417953</v>
+        <v>418805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>340956</v>
+        <v>342594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>415181</v>
+        <v>416140</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>384431</v>
+        <v>383046</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>804127</v>
+        <v>803825</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>575238</v>
+        <v>578915</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>763879</v>
+        <v>762682</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>717450</v>
+        <v>714658</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>427444</v>
+        <v>429642</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>275503</v>
+        <v>276971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>389634</v>
+        <v>392218</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>379248</v>
+        <v>379593</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>480956</v>
+        <v>483416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>407980</v>
+        <v>405302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>482127</v>
+        <v>482431</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>444632</v>
+        <v>438800</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>892782</v>
+        <v>892818</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>662600</v>
+        <v>663063</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>855719</v>
+        <v>853466</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>799585</v>
+        <v>801763</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>194185</v>
+        <v>195783</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133084</v>
+        <v>133857</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>225223</v>
+        <v>226854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>252089</v>
+        <v>252379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>236709</v>
+        <v>238629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>192250</v>
+        <v>191402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>282144</v>
+        <v>283085</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>336941</v>
+        <v>334667</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>448403</v>
+        <v>441503</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>339929</v>
+        <v>343943</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>520145</v>
+        <v>524097</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>607425</v>
+        <v>608060</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>246036</v>
+        <v>245033</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>180956</v>
+        <v>181797</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>278770</v>
+        <v>279348</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>309991</v>
+        <v>311127</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>285302</v>
+        <v>287594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>244344</v>
+        <v>244619</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>340921</v>
+        <v>339123</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>388943</v>
+        <v>388358</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>515424</v>
+        <v>515761</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>409685</v>
+        <v>414394</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>605097</v>
+        <v>602596</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>686628</v>
+        <v>686578</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>374682</v>
+        <v>365408</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>178838</v>
+        <v>178300</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>271493</v>
+        <v>273289</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>250499</v>
+        <v>252819</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>504158</v>
+        <v>504344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>286482</v>
+        <v>289274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>411610</v>
+        <v>412987</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>423092</v>
+        <v>423127</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>894840</v>
+        <v>895680</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>482291</v>
+        <v>488032</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>701826</v>
+        <v>698950</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>690706</v>
+        <v>689625</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>431384</v>
+        <v>427483</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>231427</v>
+        <v>231742</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>327159</v>
+        <v>327875</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>311047</v>
+        <v>309490</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>567202</v>
+        <v>567983</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>350599</v>
+        <v>349572</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>480100</v>
+        <v>479516</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>479651</v>
+        <v>482266</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>982274</v>
+        <v>982705</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>565993</v>
+        <v>567660</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>783234</v>
+        <v>788407</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>775630</v>
+        <v>771711</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
     </row>
     <row r="24">
